--- a/data/lossofsale_sg_kottakkal.xlsx
+++ b/data/lossofsale_sg_kottakkal.xlsx
@@ -206,12 +206,12 @@
     <col min="3" max="3" width="17.55" customWidth="1"/>
     <col min="4" max="4" width="13.5" customWidth="1"/>
     <col min="5" max="5" width="17.55" customWidth="1"/>
-    <col min="6" max="6" width="17.55" customWidth="1"/>
+    <col min="6" max="6" width="22.950000000000003" customWidth="1"/>
     <col min="7" max="7" width="8.100000000000001" customWidth="1"/>
-    <col min="8" max="8" width="10.8" customWidth="1"/>
-    <col min="9" max="9" width="28.35" customWidth="1"/>
+    <col min="8" max="8" width="22.950000000000003" customWidth="1"/>
+    <col min="9" max="9" width="37.800000000000004" customWidth="1"/>
     <col min="10" max="10" width="16.200000000000003" customWidth="1"/>
-    <col min="11" max="11" width="9.450000000000001" customWidth="1"/>
+    <col min="11" max="11" width="25.650000000000002" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -284,48 +284,419 @@
       </c>
       <c t="inlineStr" r="B3">
         <is>
+          <t xml:space="preserve">13-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C3">
+        <is>
+          <t xml:space="preserve">SALMAN</t>
+        </is>
+      </c>
+      <c r="D3" s="65">
+        <v>8921449713</v>
+      </c>
+      <c t="inlineStr" r="E3">
+        <is>
+          <t xml:space="preserve">21-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F3">
+        <is>
+          <t xml:space="preserve">Siyad vallikkadan</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G3">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H3">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I3">
+        <is>
+          <t xml:space="preserve">Enquiry for Relative/Friend</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J3">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K3">
+        <is>
+          <t xml:space="preserve">LOSS</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="65">
+        <v>2</v>
+      </c>
+      <c t="inlineStr" r="B4">
+        <is>
+          <t xml:space="preserve">13-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C4">
+        <is>
+          <t xml:space="preserve">AFSAL</t>
+        </is>
+      </c>
+      <c r="D4" s="65">
+        <v>8606300285</v>
+      </c>
+      <c t="inlineStr" r="E4">
+        <is>
+          <t xml:space="preserve">09-01-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F4">
+        <is>
+          <t xml:space="preserve">Vishnu Hari C</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G4">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H4">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I4">
+        <is>
+          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J4">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K4">
+        <is>
+          <t xml:space="preserve">LOSS</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="65">
+        <v>3</v>
+      </c>
+      <c t="inlineStr" r="B5">
+        <is>
+          <t xml:space="preserve">14-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C5">
+        <is>
+          <t xml:space="preserve">azhar</t>
+        </is>
+      </c>
+      <c r="D5" s="65">
+        <v>8891112113</v>
+      </c>
+      <c t="inlineStr" r="E5">
+        <is>
+          <t xml:space="preserve">21-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F5">
+        <is>
+          <t xml:space="preserve">Nanda Kumar P K</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G5">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H5">
+        <is>
+          <t xml:space="preserve">SIZE NOT SUITABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I5">
+        <is>
+          <t xml:space="preserve">SIZE TOO SMALL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J5">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K5">
+        <is>
+          <t xml:space="preserve">loss</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="65">
+        <v>4</v>
+      </c>
+      <c t="inlineStr" r="B6">
+        <is>
+          <t xml:space="preserve">15-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C6">
+        <is>
+          <t xml:space="preserve">FASIL</t>
+        </is>
+      </c>
+      <c r="D6" s="65">
+        <v>7560863944</v>
+      </c>
+      <c t="inlineStr" r="E6">
+        <is>
+          <t xml:space="preserve">21-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F6">
+        <is>
+          <t xml:space="preserve">Vishnu Hari C</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G6">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H6">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I6">
+        <is>
+          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J6">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K6">
+        <is>
+          <t xml:space="preserve">LOSS</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="65">
+        <v>5</v>
+      </c>
+      <c t="inlineStr" r="B7">
+        <is>
+          <t xml:space="preserve">15-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C7">
+        <is>
+          <t xml:space="preserve">FARIS</t>
+        </is>
+      </c>
+      <c r="D7" s="65">
+        <v>8606782123</v>
+      </c>
+      <c t="inlineStr" r="E7">
+        <is>
+          <t xml:space="preserve">21-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F7">
+        <is>
+          <t xml:space="preserve">PRANAV PK</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G7">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H7">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I7">
+        <is>
+          <t xml:space="preserve">Enquiry for Relative/Friend</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J7">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K7">
+        <is>
+          <t xml:space="preserve">TOMORROW CONFIRMING</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="65">
+        <v>6</v>
+      </c>
+      <c t="inlineStr" r="B8">
+        <is>
+          <t xml:space="preserve">16-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C8">
+        <is>
+          <t xml:space="preserve">MUHSIN</t>
+        </is>
+      </c>
+      <c r="D8" s="65">
+        <v>9605990609</v>
+      </c>
+      <c t="inlineStr" r="E8">
+        <is>
+          <t xml:space="preserve">26-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F8">
+        <is>
+          <t xml:space="preserve">Nanda Kumar P K</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G8">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H8">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I8">
+        <is>
+          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J8">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K8">
+        <is>
+          <t xml:space="preserve">LOSS</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="65">
+        <v>7</v>
+      </c>
+      <c t="inlineStr" r="B9">
+        <is>
+          <t xml:space="preserve">16-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C9">
+        <is>
+          <t xml:space="preserve">SHAHUL</t>
+        </is>
+      </c>
+      <c r="D9" s="65">
+        <v>7558886566</v>
+      </c>
+      <c t="inlineStr" r="E9">
+        <is>
+          <t xml:space="preserve">25-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F9">
+        <is>
+          <t xml:space="preserve">PRANAV PK</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G9">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H9">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I9">
+        <is>
+          <t xml:space="preserve">Enquiry for Relative/Friend</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J9">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K9">
+        <is>
+          <t xml:space="preserve">LOSSS</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="65">
+        <v>8</v>
+      </c>
+      <c t="inlineStr" r="B10">
+        <is>
           <t xml:space="preserve">17-12-2025</t>
         </is>
       </c>
-      <c t="inlineStr" r="C3">
+      <c t="inlineStr" r="C10">
         <is>
           <t xml:space="preserve">NAHEEL</t>
         </is>
       </c>
-      <c r="D3" s="65">
+      <c r="D10" s="65">
         <v>6282199404</v>
       </c>
-      <c t="inlineStr" r="E3">
+      <c t="inlineStr" r="E10">
         <is>
           <t xml:space="preserve">22-12-2025</t>
         </is>
       </c>
-      <c t="inlineStr" r="F3">
+      <c t="inlineStr" r="F10">
         <is>
           <t xml:space="preserve">Vishnu Hari C</t>
         </is>
       </c>
-      <c t="inlineStr" r="G3">
+      <c t="inlineStr" r="G10">
         <is>
           <t xml:space="preserve">Loss</t>
         </is>
       </c>
-      <c t="inlineStr" r="H3">
+      <c t="inlineStr" r="H10">
         <is>
           <t xml:space="preserve">PRODUCT</t>
         </is>
       </c>
-      <c t="inlineStr" r="I3">
+      <c t="inlineStr" r="I10">
         <is>
           <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
         </is>
       </c>
-      <c t="inlineStr" r="J3">
+      <c t="inlineStr" r="J10">
         <is>
           <t xml:space="preserve">-</t>
         </is>
       </c>
-      <c t="inlineStr" r="K3">
+      <c t="inlineStr" r="K10">
         <is>
           <t xml:space="preserve">LOSS,</t>
         </is>

--- a/data/lossofsale_sg_kottakkal.xlsx
+++ b/data/lossofsale_sg_kottakkal.xlsx
@@ -209,9 +209,9 @@
     <col min="6" max="6" width="22.950000000000003" customWidth="1"/>
     <col min="7" max="7" width="8.100000000000001" customWidth="1"/>
     <col min="8" max="8" width="22.950000000000003" customWidth="1"/>
-    <col min="9" max="9" width="37.800000000000004" customWidth="1"/>
+    <col min="9" max="9" width="39.150000000000006" customWidth="1"/>
     <col min="10" max="10" width="16.200000000000003" customWidth="1"/>
-    <col min="11" max="11" width="25.650000000000002" customWidth="1"/>
+    <col min="11" max="11" width="29.700000000000003" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -284,25 +284,25 @@
       </c>
       <c t="inlineStr" r="B3">
         <is>
+          <t xml:space="preserve">10-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C3">
+        <is>
+          <t xml:space="preserve">RAMEES</t>
+        </is>
+      </c>
+      <c r="D3" s="65">
+        <v>9895703271</v>
+      </c>
+      <c t="inlineStr" r="E3">
+        <is>
           <t xml:space="preserve">13-12-2025</t>
         </is>
       </c>
-      <c t="inlineStr" r="C3">
-        <is>
-          <t xml:space="preserve">SALMAN</t>
-        </is>
-      </c>
-      <c r="D3" s="65">
-        <v>8921449713</v>
-      </c>
-      <c t="inlineStr" r="E3">
-        <is>
-          <t xml:space="preserve">21-12-2025</t>
-        </is>
-      </c>
       <c t="inlineStr" r="F3">
         <is>
-          <t xml:space="preserve">Siyad vallikkadan</t>
+          <t xml:space="preserve">Nanda Kumar P K</t>
         </is>
       </c>
       <c t="inlineStr" r="G3">
@@ -327,7 +327,7 @@
       </c>
       <c t="inlineStr" r="K3">
         <is>
-          <t xml:space="preserve">LOSS</t>
+          <t xml:space="preserve">LLOSS</t>
         </is>
       </c>
     </row>
@@ -337,25 +337,25 @@
       </c>
       <c t="inlineStr" r="B4">
         <is>
-          <t xml:space="preserve">13-12-2025</t>
+          <t xml:space="preserve">10-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C4">
         <is>
-          <t xml:space="preserve">AFSAL</t>
+          <t xml:space="preserve">SAMEEL</t>
         </is>
       </c>
       <c r="D4" s="65">
-        <v>8606300285</v>
+        <v>9961466685</v>
       </c>
       <c t="inlineStr" r="E4">
         <is>
-          <t xml:space="preserve">09-01-2026</t>
+          <t xml:space="preserve">14-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F4">
         <is>
-          <t xml:space="preserve">Vishnu Hari C</t>
+          <t xml:space="preserve">PRANAV PK</t>
         </is>
       </c>
       <c t="inlineStr" r="G4">
@@ -370,7 +370,7 @@
       </c>
       <c t="inlineStr" r="I4">
         <is>
-          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
+          <t xml:space="preserve">Enquiry for Relative/Friend</t>
         </is>
       </c>
       <c t="inlineStr" r="J4">
@@ -380,7 +380,7 @@
       </c>
       <c t="inlineStr" r="K4">
         <is>
-          <t xml:space="preserve">LOSS</t>
+          <t xml:space="preserve">THEY WILKL COME TOMORW</t>
         </is>
       </c>
     </row>
@@ -390,16 +390,16 @@
       </c>
       <c t="inlineStr" r="B5">
         <is>
-          <t xml:space="preserve">14-12-2025</t>
+          <t xml:space="preserve">11-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C5">
         <is>
-          <t xml:space="preserve">azhar</t>
+          <t xml:space="preserve">SHAHABAS</t>
         </is>
       </c>
       <c r="D5" s="65">
-        <v>8891112113</v>
+        <v>8129693550</v>
       </c>
       <c t="inlineStr" r="E5">
         <is>
@@ -408,7 +408,7 @@
       </c>
       <c t="inlineStr" r="F5">
         <is>
-          <t xml:space="preserve">Nanda Kumar P K</t>
+          <t xml:space="preserve">Siyad vallikkadan</t>
         </is>
       </c>
       <c t="inlineStr" r="G5">
@@ -418,12 +418,12 @@
       </c>
       <c t="inlineStr" r="H5">
         <is>
-          <t xml:space="preserve">SIZE NOT SUITABLE</t>
+          <t xml:space="preserve">ENQUIRY</t>
         </is>
       </c>
       <c t="inlineStr" r="I5">
         <is>
-          <t xml:space="preserve">SIZE TOO SMALL</t>
+          <t xml:space="preserve">Enquiry for Relative/Friend</t>
         </is>
       </c>
       <c t="inlineStr" r="J5">
@@ -433,7 +433,7 @@
       </c>
       <c t="inlineStr" r="K5">
         <is>
-          <t xml:space="preserve">loss</t>
+          <t xml:space="preserve">LOSS</t>
         </is>
       </c>
     </row>
@@ -443,25 +443,25 @@
       </c>
       <c t="inlineStr" r="B6">
         <is>
-          <t xml:space="preserve">15-12-2025</t>
+          <t xml:space="preserve">11-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C6">
         <is>
-          <t xml:space="preserve">FASIL</t>
+          <t xml:space="preserve">AMEER</t>
         </is>
       </c>
       <c r="D6" s="65">
-        <v>7560863944</v>
+        <v>7736886309</v>
       </c>
       <c t="inlineStr" r="E6">
         <is>
-          <t xml:space="preserve">21-12-2025</t>
+          <t xml:space="preserve">25-01-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F6">
         <is>
-          <t xml:space="preserve">Vishnu Hari C</t>
+          <t xml:space="preserve">PRANAV PK</t>
         </is>
       </c>
       <c t="inlineStr" r="G6">
@@ -496,16 +496,16 @@
       </c>
       <c t="inlineStr" r="B7">
         <is>
-          <t xml:space="preserve">15-12-2025</t>
+          <t xml:space="preserve">13-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C7">
         <is>
-          <t xml:space="preserve">FARIS</t>
+          <t xml:space="preserve">SALMAN</t>
         </is>
       </c>
       <c r="D7" s="65">
-        <v>8606782123</v>
+        <v>8921449713</v>
       </c>
       <c t="inlineStr" r="E7">
         <is>
@@ -514,7 +514,7 @@
       </c>
       <c t="inlineStr" r="F7">
         <is>
-          <t xml:space="preserve">PRANAV PK</t>
+          <t xml:space="preserve">Siyad vallikkadan</t>
         </is>
       </c>
       <c t="inlineStr" r="G7">
@@ -539,7 +539,7 @@
       </c>
       <c t="inlineStr" r="K7">
         <is>
-          <t xml:space="preserve">TOMORROW CONFIRMING</t>
+          <t xml:space="preserve">LOSS</t>
         </is>
       </c>
     </row>
@@ -549,25 +549,25 @@
       </c>
       <c t="inlineStr" r="B8">
         <is>
-          <t xml:space="preserve">16-12-2025</t>
+          <t xml:space="preserve">13-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C8">
         <is>
-          <t xml:space="preserve">MUHSIN</t>
+          <t xml:space="preserve">AFSAL</t>
         </is>
       </c>
       <c r="D8" s="65">
-        <v>9605990609</v>
+        <v>8606300285</v>
       </c>
       <c t="inlineStr" r="E8">
         <is>
-          <t xml:space="preserve">26-12-2025</t>
+          <t xml:space="preserve">09-01-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F8">
         <is>
-          <t xml:space="preserve">Nanda Kumar P K</t>
+          <t xml:space="preserve">Vishnu Hari C</t>
         </is>
       </c>
       <c t="inlineStr" r="G8">
@@ -602,25 +602,25 @@
       </c>
       <c t="inlineStr" r="B9">
         <is>
-          <t xml:space="preserve">16-12-2025</t>
+          <t xml:space="preserve">14-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C9">
         <is>
-          <t xml:space="preserve">SHAHUL</t>
+          <t xml:space="preserve">azhar</t>
         </is>
       </c>
       <c r="D9" s="65">
-        <v>7558886566</v>
+        <v>8891112113</v>
       </c>
       <c t="inlineStr" r="E9">
         <is>
-          <t xml:space="preserve">25-12-2025</t>
+          <t xml:space="preserve">21-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F9">
         <is>
-          <t xml:space="preserve">PRANAV PK</t>
+          <t xml:space="preserve">Nanda Kumar P K</t>
         </is>
       </c>
       <c t="inlineStr" r="G9">
@@ -630,12 +630,12 @@
       </c>
       <c t="inlineStr" r="H9">
         <is>
-          <t xml:space="preserve">ENQUIRY</t>
+          <t xml:space="preserve">SIZE NOT SUITABLE</t>
         </is>
       </c>
       <c t="inlineStr" r="I9">
         <is>
-          <t xml:space="preserve">Enquiry for Relative/Friend</t>
+          <t xml:space="preserve">SIZE TOO SMALL</t>
         </is>
       </c>
       <c t="inlineStr" r="J9">
@@ -645,7 +645,7 @@
       </c>
       <c t="inlineStr" r="K9">
         <is>
-          <t xml:space="preserve">LOSSS</t>
+          <t xml:space="preserve">loss</t>
         </is>
       </c>
     </row>
@@ -655,50 +655,623 @@
       </c>
       <c t="inlineStr" r="B10">
         <is>
+          <t xml:space="preserve">15-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C10">
+        <is>
+          <t xml:space="preserve">FASIL</t>
+        </is>
+      </c>
+      <c r="D10" s="65">
+        <v>7560863944</v>
+      </c>
+      <c t="inlineStr" r="E10">
+        <is>
+          <t xml:space="preserve">21-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F10">
+        <is>
+          <t xml:space="preserve">Vishnu Hari C</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G10">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H10">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I10">
+        <is>
+          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J10">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K10">
+        <is>
+          <t xml:space="preserve">LOSS</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="65">
+        <v>9</v>
+      </c>
+      <c t="inlineStr" r="B11">
+        <is>
+          <t xml:space="preserve">15-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C11">
+        <is>
+          <t xml:space="preserve">FARIS</t>
+        </is>
+      </c>
+      <c r="D11" s="65">
+        <v>8606782123</v>
+      </c>
+      <c t="inlineStr" r="E11">
+        <is>
+          <t xml:space="preserve">21-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F11">
+        <is>
+          <t xml:space="preserve">PRANAV PK</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G11">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H11">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I11">
+        <is>
+          <t xml:space="preserve">Enquiry for Relative/Friend</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J11">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K11">
+        <is>
+          <t xml:space="preserve">TOMORROW CONFIRMING</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="65">
+        <v>10</v>
+      </c>
+      <c t="inlineStr" r="B12">
+        <is>
+          <t xml:space="preserve">16-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C12">
+        <is>
+          <t xml:space="preserve">MUHSIN</t>
+        </is>
+      </c>
+      <c r="D12" s="65">
+        <v>9605990609</v>
+      </c>
+      <c t="inlineStr" r="E12">
+        <is>
+          <t xml:space="preserve">26-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F12">
+        <is>
+          <t xml:space="preserve">Nanda Kumar P K</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G12">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H12">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I12">
+        <is>
+          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J12">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K12">
+        <is>
+          <t xml:space="preserve">LOSS</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="65">
+        <v>11</v>
+      </c>
+      <c t="inlineStr" r="B13">
+        <is>
+          <t xml:space="preserve">16-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C13">
+        <is>
+          <t xml:space="preserve">SHAHUL</t>
+        </is>
+      </c>
+      <c r="D13" s="65">
+        <v>7558886566</v>
+      </c>
+      <c t="inlineStr" r="E13">
+        <is>
+          <t xml:space="preserve">25-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F13">
+        <is>
+          <t xml:space="preserve">PRANAV PK</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G13">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H13">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I13">
+        <is>
+          <t xml:space="preserve">Enquiry for Relative/Friend</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J13">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K13">
+        <is>
+          <t xml:space="preserve">LOSSS</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="65">
+        <v>12</v>
+      </c>
+      <c t="inlineStr" r="B14">
+        <is>
           <t xml:space="preserve">17-12-2025</t>
         </is>
       </c>
-      <c t="inlineStr" r="C10">
+      <c t="inlineStr" r="C14">
         <is>
           <t xml:space="preserve">NAHEEL</t>
         </is>
       </c>
-      <c r="D10" s="65">
+      <c r="D14" s="65">
         <v>6282199404</v>
       </c>
-      <c t="inlineStr" r="E10">
+      <c t="inlineStr" r="E14">
         <is>
           <t xml:space="preserve">22-12-2025</t>
         </is>
       </c>
-      <c t="inlineStr" r="F10">
+      <c t="inlineStr" r="F14">
         <is>
           <t xml:space="preserve">Vishnu Hari C</t>
         </is>
       </c>
-      <c t="inlineStr" r="G10">
-        <is>
-          <t xml:space="preserve">Loss</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="H10">
+      <c t="inlineStr" r="G14">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H14">
         <is>
           <t xml:space="preserve">PRODUCT</t>
         </is>
       </c>
-      <c t="inlineStr" r="I10">
+      <c t="inlineStr" r="I14">
         <is>
           <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
         </is>
       </c>
-      <c t="inlineStr" r="J10">
-        <is>
-          <t xml:space="preserve">-</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="K10">
+      <c t="inlineStr" r="J14">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K14">
         <is>
           <t xml:space="preserve">LOSS,</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="65">
+        <v>13</v>
+      </c>
+      <c t="inlineStr" r="B15">
+        <is>
+          <t xml:space="preserve">18-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C15">
+        <is>
+          <t xml:space="preserve">DANISH</t>
+        </is>
+      </c>
+      <c r="D15" s="65">
+        <v>9656371417</v>
+      </c>
+      <c t="inlineStr" r="E15">
+        <is>
+          <t xml:space="preserve">28-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F15">
+        <is>
+          <t xml:space="preserve">PRANAV PK</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G15">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H15">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I15">
+        <is>
+          <t xml:space="preserve">Enquiry for Relative/Friend</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J15">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="65">
+        <v>14</v>
+      </c>
+      <c t="inlineStr" r="B16">
+        <is>
+          <t xml:space="preserve">18-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C16">
+        <is>
+          <t xml:space="preserve">SUHAI</t>
+        </is>
+      </c>
+      <c r="D16" s="65">
+        <v>8157828729</v>
+      </c>
+      <c t="inlineStr" r="E16">
+        <is>
+          <t xml:space="preserve">31-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F16">
+        <is>
+          <t xml:space="preserve">Vishnu Hari C</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G16">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H16">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I16">
+        <is>
+          <t xml:space="preserve">Enquiry for Relative/Friend</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J16">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="65">
+        <v>15</v>
+      </c>
+      <c t="inlineStr" r="B17">
+        <is>
+          <t xml:space="preserve">20-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C17">
+        <is>
+          <t xml:space="preserve">fasal</t>
+        </is>
+      </c>
+      <c r="D17" s="65">
+        <v>9400269471</v>
+      </c>
+      <c t="inlineStr" r="E17">
+        <is>
+          <t xml:space="preserve">24-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F17">
+        <is>
+          <t xml:space="preserve">Siyad vallikkadan</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G17">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H17">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I17">
+        <is>
+          <t xml:space="preserve">Enquiry for Relative/Friend</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J17">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K17">
+        <is>
+          <t xml:space="preserve">loss</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="65">
+        <v>16</v>
+      </c>
+      <c t="inlineStr" r="B18">
+        <is>
+          <t xml:space="preserve">20-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C18">
+        <is>
+          <t xml:space="preserve">niyaz</t>
+        </is>
+      </c>
+      <c r="D18" s="65">
+        <v>6282416639</v>
+      </c>
+      <c t="inlineStr" r="E18">
+        <is>
+          <t xml:space="preserve">13-01-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F18">
+        <is>
+          <t xml:space="preserve">Vishnu Hari C</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G18">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H18">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I18">
+        <is>
+          <t xml:space="preserve">Enquiry for Relative/Friend</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J18">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K18">
+        <is>
+          <t xml:space="preserve">loss</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="65">
+        <v>17</v>
+      </c>
+      <c t="inlineStr" r="B19">
+        <is>
+          <t xml:space="preserve">21-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C19">
+        <is>
+          <t xml:space="preserve">NABEEEL</t>
+        </is>
+      </c>
+      <c r="D19" s="65">
+        <v>8589082928</v>
+      </c>
+      <c t="inlineStr" r="E19">
+        <is>
+          <t xml:space="preserve">10-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F19">
+        <is>
+          <t xml:space="preserve">Vishnu Hari C</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G19">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H19">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I19">
+        <is>
+          <t xml:space="preserve">REQUIRED DESIGN NOT AVAILABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J19">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K19">
+        <is>
+          <t xml:space="preserve">LOSS</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="65">
+        <v>18</v>
+      </c>
+      <c t="inlineStr" r="B20">
+        <is>
+          <t xml:space="preserve">21-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C20">
+        <is>
+          <t xml:space="preserve">SHAHIR</t>
+        </is>
+      </c>
+      <c r="D20" s="65">
+        <v>8593930461</v>
+      </c>
+      <c t="inlineStr" r="E20">
+        <is>
+          <t xml:space="preserve">31-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F20">
+        <is>
+          <t xml:space="preserve">Vishnu Hari C</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G20">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H20">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I20">
+        <is>
+          <t xml:space="preserve">REQUIRED DESIGN NOT AVAILABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J20">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K20">
+        <is>
+          <t xml:space="preserve">LOSS</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="65">
+        <v>19</v>
+      </c>
+      <c t="inlineStr" r="B21">
+        <is>
+          <t xml:space="preserve">21-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C21">
+        <is>
+          <t xml:space="preserve">AMEEN</t>
+        </is>
+      </c>
+      <c r="D21" s="65">
+        <v>7306396370</v>
+      </c>
+      <c t="inlineStr" r="E21">
+        <is>
+          <t xml:space="preserve">01-01-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F21">
+        <is>
+          <t xml:space="preserve">Nanda Kumar P K</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G21">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H21">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I21">
+        <is>
+          <t xml:space="preserve">Enquiry for Relative/Friend</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J21">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K21">
+        <is>
+          <t xml:space="preserve">LOSS</t>
         </is>
       </c>
     </row>

--- a/data/lossofsale_sg_kottakkal.xlsx
+++ b/data/lossofsale_sg_kottakkal.xlsx
@@ -1275,6 +1275,271 @@
         </is>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" s="65">
+        <v>20</v>
+      </c>
+      <c t="inlineStr" r="B22">
+        <is>
+          <t xml:space="preserve">22-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C22">
+        <is>
+          <t xml:space="preserve">MAJID</t>
+        </is>
+      </c>
+      <c r="D22" s="65">
+        <v>8606416639</v>
+      </c>
+      <c t="inlineStr" r="E22">
+        <is>
+          <t xml:space="preserve">25-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F22">
+        <is>
+          <t xml:space="preserve">Vishnu Hari C</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G22">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H22">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I22">
+        <is>
+          <t xml:space="preserve">Enquiry for Relative/Friend</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J22">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K22">
+        <is>
+          <t xml:space="preserve">LOSS</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="65">
+        <v>21</v>
+      </c>
+      <c t="inlineStr" r="B23">
+        <is>
+          <t xml:space="preserve">23-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C23">
+        <is>
+          <t xml:space="preserve">fariz</t>
+        </is>
+      </c>
+      <c r="D23" s="65">
+        <v>8943665555</v>
+      </c>
+      <c t="inlineStr" r="E23">
+        <is>
+          <t xml:space="preserve">03-01-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F23">
+        <is>
+          <t xml:space="preserve">Siyad vallikkadan</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G23">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H23">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I23">
+        <is>
+          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J23">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K23">
+        <is>
+          <t xml:space="preserve">tomorrow confirm</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="65">
+        <v>22</v>
+      </c>
+      <c t="inlineStr" r="B24">
+        <is>
+          <t xml:space="preserve">23-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C24">
+        <is>
+          <t xml:space="preserve">SUHAIL</t>
+        </is>
+      </c>
+      <c r="D24" s="65">
+        <v>9447843666</v>
+      </c>
+      <c t="inlineStr" r="E24">
+        <is>
+          <t xml:space="preserve">27-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F24">
+        <is>
+          <t xml:space="preserve">Vishnu Hari C</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G24">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H24">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I24">
+        <is>
+          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J24">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K24">
+        <is>
+          <t xml:space="preserve">LOSS</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="65">
+        <v>23</v>
+      </c>
+      <c t="inlineStr" r="B25">
+        <is>
+          <t xml:space="preserve">24-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C25">
+        <is>
+          <t xml:space="preserve">MUNEES</t>
+        </is>
+      </c>
+      <c r="D25" s="65">
+        <v>9048208991</v>
+      </c>
+      <c t="inlineStr" r="E25">
+        <is>
+          <t xml:space="preserve">27-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F25">
+        <is>
+          <t xml:space="preserve">Vishnu Hari C</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G25">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H25">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I25">
+        <is>
+          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J25">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K25">
+        <is>
+          <t xml:space="preserve">LOSS</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="65">
+        <v>24</v>
+      </c>
+      <c t="inlineStr" r="B26">
+        <is>
+          <t xml:space="preserve">24-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C26">
+        <is>
+          <t xml:space="preserve">SADHIK</t>
+        </is>
+      </c>
+      <c r="D26" s="65">
+        <v>8848446486</v>
+      </c>
+      <c t="inlineStr" r="E26">
+        <is>
+          <t xml:space="preserve">03-01-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F26">
+        <is>
+          <t xml:space="preserve">Siyad vallikkadan</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G26">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H26">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I26">
+        <is>
+          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J26">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K26">
+        <is>
+          <t xml:space="preserve">LOSS</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:K1"/>
